--- a/src/Results/Results.xlsx
+++ b/src/Results/Results.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>neutral</t>
   </si>
   <si>
-    <t>angry</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>surprise</t>
   </si>
   <si>
     <t>happy</t>
@@ -380,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.384979099995689</v>
+        <v>1.02808640000876</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.608741099989857</v>
+        <v>1.24741820001509</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>9.758527400001185</v>
+        <v>2.994884000014281</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,7 +449,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.9394384999905</v>
+        <v>3.202956299996004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3.436031999997795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.098535500001162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4.34527469999739</v>
       </c>
     </row>
   </sheetData>

--- a/src/Results/Results.xlsx
+++ b/src/Results/Results.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>neutral</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>surprise</t>
+    <t>happy</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>surprise</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.02808640000876</v>
+        <v>1.062102600000799</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +430,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.24741820001509</v>
+        <v>1.463099300002796</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +441,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.994884000014281</v>
+        <v>1.678607100009685</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.202956299996004</v>
+        <v>2.135661699998309</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3.436031999997795</v>
+        <v>2.712933200004045</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +474,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.098535500001162</v>
+        <v>2.911483200005023</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +485,153 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4.82185040001059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>4.34527469999739</v>
+      <c r="C10">
+        <v>5.059743100006017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.875170300001628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>6.073256500007119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>6.470396800010349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>7.110622200008947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7.498422500008019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8.126322500000242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>13.64557620001142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>18.32348210000782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>18.54596410000522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>18.74780310000642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>19.64774410000246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>20.6621487000084</v>
       </c>
     </row>
   </sheetData>

--- a/src/Results/Results.xlsx
+++ b/src/Results/Results.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>neutral</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
     <t>happy</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>surprise</t>
   </si>
 </sst>
 </file>
@@ -389,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,216 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.062102600000799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1.463099300002796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1.678607100009685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2.135661699998309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2.712933200004045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2.911483200005023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>4.82185040001059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>5.059743100006017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>5.875170300001628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>6.073256500007119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>6.470396800010349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>7.110622200008947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>7.498422500008019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>8.126322500000242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>13.64557620001142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>18.32348210000782</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>18.54596410000522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>18.74780310000642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>19.64774410000246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>20.6621487000084</v>
+        <v>1.558637000001909</v>
       </c>
     </row>
   </sheetData>

--- a/src/Results/Results.xlsx
+++ b/src/Results/Results.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>neutral</t>
   </si>
   <si>
     <t>happy</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>angry</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +416,84 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.558637000001909</v>
+        <v>3.322744000000057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5.560093500000221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6.676402500000222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>8.942872200000238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>11.22065640000073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>15.75596780000069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>16.86338640000031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>19.14610820000053</v>
       </c>
     </row>
   </sheetData>

--- a/src/Results/Results.xlsx
+++ b/src/Results/Results.xlsx
@@ -1,63 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Detected Expresions" sheetId="1" r:id="rId1"/>
+    <sheet name="Emoções por segundo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ranking de reações" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -65,37 +43,146 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11582400" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11582400" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,121 +469,845 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>REAÇÃO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TEMPO [s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3.322744000000057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>5.560093500000221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>medo</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>surpresa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>surpresa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>surpresa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>medo</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>REAÇÃO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TEMPO [s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>surpresa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>triste</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>medo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>6.676402500000222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>8.942872200000238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>11.22065640000073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>15.75596780000069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>16.86338640000031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>19.14610820000053</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Results/Results.xlsx
+++ b/src/Results/Results.xlsx
@@ -134,7 +134,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11582400" cy="4762500"/>
+    <ext cx="4762500" cy="4762500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -164,7 +164,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11582400" cy="4762500"/>
+    <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>feliz</t>
+          <t>neutro</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -557,7 +557,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>feliz</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -577,7 +577,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>feliz</t>
+          <t>surpresa</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,7 +597,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>medo</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -607,7 +607,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>raiva</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -617,7 +617,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>raiva</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -627,7 +627,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>raiva</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -652,576 +652,6 @@
       </c>
       <c r="B17" t="n">
         <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>medo</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>surpresa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>surpresa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>surpresa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>triste</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>triste</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>triste</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>medo</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>feliz</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +693,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1273,13 +703,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>surpresa</t>
+          <t>raiva</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1289,21 +719,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>triste</t>
+          <t>medo</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>medo</t>
+          <t>surpresa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
